--- a/biology/Botanique/Parc_Yahataya/Parc_Yahataya.xlsx
+++ b/biology/Botanique/Parc_Yahataya/Parc_Yahataya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Yahataya (八幡屋公園) est un parc situé à Osaka dans l'arrondissement de Minato-ku au Japon. Il a été créé en 1923[1]
+Le parc Yahataya (八幡屋公園) est un parc situé à Osaka dans l'arrondissement de Minato-ku au Japon. Il a été créé en 1923
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Yahataya a été construit dans le but d'accueillir l'épreuve d'athlétisme des sixièmes Jeux de l'Extrême-Orient qui ont eu lieu à Osaka en 1923[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Yahataya a été construit dans le but d'accueillir l'épreuve d'athlétisme des sixièmes Jeux de l'Extrême-Orient qui ont eu lieu à Osaka en 1923.
 Depuis 1996, le parc regroupe le gymnase municipal d'Osaka et le complexe aquatique Osaka Pool, qui abrite également une patinoire en hiver.
 </t>
         </is>
@@ -544,12 +558,14 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc propose deux sentiers de marche. Le premier de 500 mètres et le second de 800 mètres[3].
-On peut monter sur le toit du gymnase qui a été aménagé en plate-forme d'observation. Il offre une vue panoramique à 360 degrés[4].
-Au centre du parc se trouve le jardin avec ses pelouses et ses plantes. Divers événements y sont organisés[5].
-Enfin, il y a un terrain multi-sport extérieurs où l'on peut jouer au basket-ball ou encore au tennis[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc propose deux sentiers de marche. Le premier de 500 mètres et le second de 800 mètres.
+On peut monter sur le toit du gymnase qui a été aménagé en plate-forme d'observation. Il offre une vue panoramique à 360 degrés.
+Au centre du parc se trouve le jardin avec ses pelouses et ses plantes. Divers événements y sont organisés.
+Enfin, il y a un terrain multi-sport extérieurs où l'on peut jouer au basket-ball ou encore au tennis.
 </t>
         </is>
       </c>
